--- a/data/movies2016.xlsx
+++ b/data/movies2016.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="128">
   <si>
     <t>genre</t>
   </si>
@@ -276,12 +276,147 @@
   </si>
   <si>
     <t>box_office_actual</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Barbara Harris</t>
+  </si>
+  <si>
+    <t>Jodie Foster</t>
+  </si>
+  <si>
+    <t>John Astin</t>
+  </si>
+  <si>
+    <t>Patsy Kelly</t>
+  </si>
+  <si>
+    <t>Dick Van Patten</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>audience_score</t>
+  </si>
+  <si>
+    <t>critics_score</t>
+  </si>
+  <si>
+    <t>imdb_rating</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Jamie Lee Curtis</t>
+  </si>
+  <si>
+    <t>Lindsay Lohan</t>
+  </si>
+  <si>
+    <t>Mark Harmon</t>
+  </si>
+  <si>
+    <t>Harold Gould</t>
+  </si>
+  <si>
+    <t>Chad Michael Murray</t>
+  </si>
+  <si>
+    <t>Freaky Friday (1976)</t>
+  </si>
+  <si>
+    <t>Freaky Friday (2003)</t>
+  </si>
+  <si>
+    <t>Christopher Walken</t>
+  </si>
+  <si>
+    <t>Man on Fire (2004)</t>
+  </si>
+  <si>
+    <t>Man on Fire (1987)</t>
+  </si>
+  <si>
+    <t>Denzel Washington</t>
+  </si>
+  <si>
+    <t>Dakota Fanning</t>
+  </si>
+  <si>
+    <t>Radha Mitchell</t>
+  </si>
+  <si>
+    <t>Mickey Rourke</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Scott Glenn</t>
+  </si>
+  <si>
+    <t>Joe Pesci</t>
+  </si>
+  <si>
+    <t>Brooke Adams</t>
+  </si>
+  <si>
+    <t>Jonathan Pryce</t>
+  </si>
+  <si>
+    <t>Danny Aiello</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>Flatliners (1990)</t>
+  </si>
+  <si>
+    <t>Kiefer Sutherland</t>
+  </si>
+  <si>
+    <t>William Baldwin</t>
+  </si>
+  <si>
+    <t>Oliver Platt</t>
+  </si>
+  <si>
+    <t>Diego Luna</t>
+  </si>
+  <si>
+    <t>Ellen Page</t>
+  </si>
+  <si>
+    <t>Flatliners (2017)</t>
+  </si>
+  <si>
+    <t>Nina Dobrev</t>
+  </si>
+  <si>
+    <t>James Norton</t>
+  </si>
+  <si>
+    <t>Kiersey Clemons</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -311,9 +446,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -594,436 +730,784 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="E21" sqref="E21:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>67</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O1" t="s">
         <v>82</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2016</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <f>2*60+31</f>
         <v>151</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>68</v>
       </c>
-      <c r="K2" s="1">
+      <c r="O2" s="1">
         <v>507503</v>
       </c>
-      <c r="L2" s="1">
+      <c r="P2" s="1">
         <v>330360194</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2016</v>
+      </c>
+      <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <f>60+48</f>
         <v>108</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>21</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>23</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="1">
+      <c r="O3" s="1">
         <v>159803</v>
       </c>
-      <c r="L3" s="1">
+      <c r="P3" s="1">
         <v>128350574</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2016</v>
+      </c>
+      <c r="B4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>25</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>120</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>26</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>27</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>28</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>29</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>30</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="1">
+      <c r="O4" s="1">
         <v>139156</v>
       </c>
-      <c r="L4" s="1">
+      <c r="P4" s="1">
         <v>103144286</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2016</v>
+      </c>
+      <c r="B5" t="s">
         <v>35</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <f>60+56</f>
         <v>116</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>31</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>32</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>33</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>34</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>71</v>
       </c>
-      <c r="K5" s="1">
+      <c r="O5" s="1">
         <v>408010</v>
       </c>
-      <c r="L5" s="1">
+      <c r="P5" s="1">
         <v>100546139</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2016</v>
+      </c>
+      <c r="B6" t="s">
         <v>36</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <f>60+56</f>
         <v>116</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>37</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>38</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>39</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>40</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>41</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>72</v>
       </c>
-      <c r="K6" s="1">
+      <c r="O6" s="1">
         <v>198622</v>
       </c>
-      <c r="L6" s="1">
+      <c r="P6" s="1">
         <v>36261763</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2016</v>
+      </c>
+      <c r="B7" t="s">
         <v>42</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>43</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <f>60+35</f>
         <v>95</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>37</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>44</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>45</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>46</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>47</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>48</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>72</v>
       </c>
-      <c r="K7" s="1">
+      <c r="O7" s="1">
         <v>74172</v>
       </c>
-      <c r="L7" s="1">
+      <c r="P7" s="1">
         <v>41012075</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2016</v>
+      </c>
+      <c r="B8" t="s">
         <v>49</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>50</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <f>60+34</f>
         <v>94</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>51</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>52</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>53</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>54</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>80</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>81</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>69</v>
       </c>
-      <c r="K8" s="1">
+      <c r="O8" s="1">
         <v>39499</v>
       </c>
-      <c r="L8" s="1">
+      <c r="P8" s="1">
         <v>64063008</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2016</v>
+      </c>
+      <c r="B9" t="s">
         <v>55</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>5</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <f>60+52</f>
         <v>112</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>51</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>56</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>57</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>58</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>59</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>60</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>72</v>
       </c>
-      <c r="K9" s="1">
+      <c r="O9" s="1">
         <v>64639</v>
       </c>
-      <c r="L9" s="1">
+      <c r="P9" s="1">
         <v>77041381</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2016</v>
+      </c>
+      <c r="B10" t="s">
         <v>61</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>43</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <f>2*60+10</f>
         <v>130</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>37</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>62</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>63</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>64</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>65</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>66</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>73</v>
       </c>
-      <c r="K10" s="1">
+      <c r="O10" s="1">
         <v>54864</v>
       </c>
-      <c r="L10" s="1">
+      <c r="P10" s="1">
         <v>31886361</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2016</v>
+      </c>
+      <c r="B11" t="s">
         <v>74</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>5</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <f>2*120+27</f>
         <v>267</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>6</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>75</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>76</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>77</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>78</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>79</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>72</v>
       </c>
-      <c r="K11" s="1">
+      <c r="O11" s="1">
         <v>452493</v>
       </c>
-      <c r="L11" s="1">
+      <c r="P11" s="1">
         <v>408084349</v>
       </c>
     </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1976</v>
+      </c>
+      <c r="B12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <f>60+35</f>
+        <v>95</v>
+      </c>
+      <c r="E12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" t="s">
+        <v>89</v>
+      </c>
+      <c r="J12" t="s">
+        <v>90</v>
+      </c>
+      <c r="K12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L12">
+        <v>6.3</v>
+      </c>
+      <c r="M12">
+        <v>71</v>
+      </c>
+      <c r="N12">
+        <v>57</v>
+      </c>
+      <c r="O12" s="1">
+        <v>9800</v>
+      </c>
+      <c r="P12" s="2">
+        <v>25642000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2003</v>
+      </c>
+      <c r="B13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13">
+        <f>60+37</f>
+        <v>97</v>
+      </c>
+      <c r="E13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13" t="s">
+        <v>99</v>
+      </c>
+      <c r="J13" t="s">
+        <v>100</v>
+      </c>
+      <c r="K13" t="s">
+        <v>95</v>
+      </c>
+      <c r="L13">
+        <v>6.2</v>
+      </c>
+      <c r="M13">
+        <v>57</v>
+      </c>
+      <c r="N13">
+        <v>88</v>
+      </c>
+      <c r="O13" s="1">
+        <v>105781</v>
+      </c>
+      <c r="P13" s="1">
+        <v>110230332</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1990</v>
+      </c>
+      <c r="B14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14">
+        <f>60+55</f>
+        <v>115</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" t="s">
+        <v>120</v>
+      </c>
+      <c r="J14" t="s">
+        <v>121</v>
+      </c>
+      <c r="K14" t="s">
+        <v>95</v>
+      </c>
+      <c r="L14">
+        <v>6.6</v>
+      </c>
+      <c r="M14">
+        <v>59</v>
+      </c>
+      <c r="N14">
+        <v>48</v>
+      </c>
+      <c r="O14" s="1">
+        <v>68454</v>
+      </c>
+      <c r="P14" s="1">
+        <v>61489265</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2017</v>
+      </c>
+      <c r="B15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15">
+        <f>60+48</f>
+        <v>108</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" t="s">
+        <v>122</v>
+      </c>
+      <c r="H15" t="s">
+        <v>125</v>
+      </c>
+      <c r="I15" t="s">
+        <v>126</v>
+      </c>
+      <c r="J15" t="s">
+        <v>127</v>
+      </c>
+      <c r="L15">
+        <v>5</v>
+      </c>
+      <c r="M15">
+        <v>38</v>
+      </c>
+      <c r="N15">
+        <v>5</v>
+      </c>
+      <c r="O15" s="1">
+        <v>5701</v>
+      </c>
+      <c r="P15" s="1">
+        <v>16877430</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2004</v>
+      </c>
+      <c r="B16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <f>120+26</f>
+        <v>146</v>
+      </c>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" t="s">
+        <v>107</v>
+      </c>
+      <c r="H16" t="s">
+        <v>108</v>
+      </c>
+      <c r="I16" t="s">
+        <v>103</v>
+      </c>
+      <c r="J16" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" t="s">
+        <v>117</v>
+      </c>
+      <c r="L16">
+        <v>7.7</v>
+      </c>
+      <c r="M16">
+        <v>89</v>
+      </c>
+      <c r="N16">
+        <v>39</v>
+      </c>
+      <c r="O16" s="1">
+        <v>286923</v>
+      </c>
+      <c r="P16" s="1">
+        <v>77911774</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1987</v>
+      </c>
+      <c r="B17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <f>60+32</f>
+        <v>92</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" t="s">
+        <v>113</v>
+      </c>
+      <c r="H17" t="s">
+        <v>114</v>
+      </c>
+      <c r="I17" t="s">
+        <v>115</v>
+      </c>
+      <c r="J17" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" t="s">
+        <v>111</v>
+      </c>
+      <c r="L17">
+        <v>5.9</v>
+      </c>
+      <c r="M17">
+        <v>72</v>
+      </c>
+      <c r="N17" t="s">
+        <v>110</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1357</v>
+      </c>
+      <c r="P17" s="1">
+        <v>519596</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>